--- a/src/main/resources/template/唐山市眼科医院学生体检信息模板.xlsx
+++ b/src/main/resources/template/唐山市眼科医院学生体检信息模板.xlsx
@@ -32,7 +32,7 @@
     <t>学校</t>
   </si>
   <si>
-    <t>年纪</t>
+    <t>年级</t>
   </si>
   <si>
     <t>班级</t>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
